--- a/libs/DATA_FILTERED.xlsx
+++ b/libs/DATA_FILTERED.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
   <si>
     <t xml:space="preserve">KELURAHAN</t>
   </si>
@@ -1836,6 +1836,21 @@
   </si>
   <si>
     <t>3674064802950001</t>
+  </si>
+  <si>
+    <t>3301142208930007</t>
+  </si>
+  <si>
+    <t>3174052505620011</t>
+  </si>
+  <si>
+    <t>3174055809711001</t>
+  </si>
+  <si>
+    <t>1213090603910003</t>
+  </si>
+  <si>
+    <t>3174055412951001</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1166</v>
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
@@ -11016,6 +11031,90 @@
         <v>241</v>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>604</v>
+      </c>
+      <c r="B645" t="s">
+        <v>27</v>
+      </c>
+      <c r="C645" t="s">
+        <v>9</v>
+      </c>
+      <c r="D645" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>605</v>
+      </c>
+      <c r="B646" t="s">
+        <v>8</v>
+      </c>
+      <c r="C646" t="s">
+        <v>9</v>
+      </c>
+      <c r="D646" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>606</v>
+      </c>
+      <c r="B647" t="s">
+        <v>8</v>
+      </c>
+      <c r="C647" t="s">
+        <v>9</v>
+      </c>
+      <c r="D647" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>607</v>
+      </c>
+      <c r="B648" t="s">
+        <v>27</v>
+      </c>
+      <c r="C648" t="s">
+        <v>9</v>
+      </c>
+      <c r="D648" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>608</v>
+      </c>
+      <c r="B649" t="s">
+        <v>8</v>
+      </c>
+      <c r="C649" t="s">
+        <v>9</v>
+      </c>
+      <c r="D649" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>609</v>
+      </c>
+      <c r="B650" t="s">
+        <v>8</v>
+      </c>
+      <c r="C650" t="s">
+        <v>9</v>
+      </c>
+      <c r="D650" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLinesSet="true"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
